--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15DEAB-B932-CF4F-85CA-2B6227790898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718F2B8-4A19-FB4F-AE3D-AEFE1062F4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -498,9 +498,6 @@
     <t>casey@engin.umass.edu</t>
   </si>
   <si>
-    <t>kzk10@psu.edu</t>
-  </si>
-  <si>
     <t>CSIRO Australia</t>
   </si>
   <si>
@@ -712,6 +709,57 @@
   </si>
   <si>
     <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>Zhou, Xiangnan</t>
+  </si>
+  <si>
+    <t>Dueñas-Osorio, Leonardo</t>
+  </si>
+  <si>
+    <t>Stadler, Lauren</t>
+  </si>
+  <si>
+    <t>Getachew, Bezawit</t>
+  </si>
+  <si>
+    <t>Li, Qilin</t>
+  </si>
+  <si>
+    <t>Dartmouth University</t>
+  </si>
+  <si>
+    <t>Dee, Sylvia</t>
+  </si>
+  <si>
+    <t>Muñoz, Samuel</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>xz68@rice.edu</t>
+  </si>
+  <si>
+    <t>leonardo.duenas-osorio@rice.edu</t>
+  </si>
+  <si>
+    <t>Lauren.Stadler@rice.edu</t>
+  </si>
+  <si>
+    <t>Bezawit.Getachew@rice.edu</t>
+  </si>
+  <si>
+    <t>ql4216@rice.edu</t>
+  </si>
+  <si>
+    <t>Klaus.Keller@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>Sylvia.Dee@rice.edu</t>
+  </si>
+  <si>
+    <t>s.munoz@northeastern.edu</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1212,10 +1260,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1227,6 +1271,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2372,10 +2440,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A47:E75" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A47:E75" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:E75">
-    <sortCondition ref="A47:A75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A47:E89" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A47:E89" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:E89">
+    <sortCondition ref="E47:E89"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2394,8 +2462,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A82:E87" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A82:E87" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A96:E101" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A96:E101" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2639,10 +2707,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2897,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>46</v>
@@ -2910,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>47</v>
@@ -2923,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>48</v>
@@ -2977,7 +3045,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>57</v>
@@ -2991,7 +3059,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>51</v>
@@ -3005,7 +3073,7 @@
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>49</v>
@@ -3019,7 +3087,7 @@
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>55</v>
@@ -3033,7 +3101,7 @@
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>53</v>
@@ -3123,13 +3191,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="59">
         <v>43344</v>
@@ -3140,13 +3208,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="59">
         <v>43344</v>
@@ -3157,13 +3225,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="D50" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="59">
         <v>43344</v>
@@ -3174,13 +3242,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="E51" s="59">
         <v>43551</v>
@@ -3191,13 +3259,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="E52" s="59">
         <v>43551</v>
@@ -3208,13 +3276,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="E53" s="59">
         <v>43551</v>
@@ -3225,13 +3293,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="61" t="s">
         <v>70</v>
-      </c>
-      <c r="D54" s="62" t="s">
-        <v>71</v>
       </c>
       <c r="E54" s="59">
         <v>43551</v>
@@ -3242,13 +3310,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>76</v>
       </c>
       <c r="E55" s="59">
         <v>43551</v>
@@ -3259,13 +3327,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="59">
         <v>43551</v>
@@ -3276,13 +3344,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="58" t="s">
         <v>68</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="E57" s="59">
         <v>43623</v>
@@ -3293,15 +3361,15 @@
         <v>5</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="59">
+        <v>64</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="14">
         <v>43817</v>
       </c>
     </row>
@@ -3310,50 +3378,50 @@
         <v>5</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="14">
-        <v>43817</v>
+        <v>60</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="59">
+        <v>43922</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="59">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="59">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>63</v>
+      <c r="C61" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="59">
-        <v>44355</v>
+        <v>79</v>
+      </c>
+      <c r="E61" s="14">
+        <v>44539</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3361,67 +3429,67 @@
         <v>5</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="14">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="59">
-        <v>44355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="D63" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="59">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="14">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="B64" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="59">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="58" t="s">
+      <c r="B65" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="14">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="60">
-        <v>44544</v>
+      <c r="E65" s="59">
+        <v>44545</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3446,30 +3514,30 @@
         <v>5</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="E67" s="59">
         <v>44545</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="E68" s="59">
         <v>44545</v>
@@ -3486,21 +3554,21 @@
         <v>127</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="59">
         <v>44545</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>129</v>
@@ -3510,181 +3578,349 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>121</v>
+      <c r="B71" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="59">
+        <v>45</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="68">
         <v>44545</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="68">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="68">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="59">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="59">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="59">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="B77" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="E77" s="69">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E72" s="14">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="D78" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="69">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="21" t="s">
+      <c r="B79" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="14">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+      <c r="E79" s="70">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="14">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
-    </row>
-    <row r="76" spans="1:5" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="37" t="s">
+      <c r="B80" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="59">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="59">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="66"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="59"/>
+    </row>
+    <row r="83" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="66"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="59"/>
+    </row>
+    <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="66"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="59"/>
+    </row>
+    <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="66"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="59"/>
+    </row>
+    <row r="86" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="66"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="59"/>
+    </row>
+    <row r="87" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="66"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="59"/>
+    </row>
+    <row r="88" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="66"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+    </row>
+    <row r="89" spans="1:5" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="66"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="59"/>
+    </row>
+    <row r="90" spans="1:5" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" s="26" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-    </row>
-    <row r="78" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="38" t="s">
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+    </row>
+    <row r="92" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-    </row>
-    <row r="79" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="38" t="s">
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-    </row>
-    <row r="80" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
-    </row>
-    <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="6" t="s">
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39"/>
+    </row>
+    <row r="94" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+    </row>
+    <row r="95" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B96" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C96" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D96" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E96" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
+    <row r="97" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="20"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3695,13 +3931,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83:A87" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A97:A101" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A40" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48:A70 A72:A75" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A71:A78 A48:A69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3709,10 +3945,10 @@
     <hyperlink ref="D51" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
     <hyperlink ref="D56" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
     <hyperlink ref="D53" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
-    <hyperlink ref="D68" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
-    <hyperlink ref="D69" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
-    <hyperlink ref="D70" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
-    <hyperlink ref="D71" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D60" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
+    <hyperlink ref="D68" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
+    <hyperlink ref="D69" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
+    <hyperlink ref="D70" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId8"/>

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718F2B8-4A19-FB4F-AE3D-AEFE1062F4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B2A4DA-BAB7-5B4C-8630-6B2E5FB19A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Columbia University</t>
   </si>
   <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
     <t>Rice University</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>alicia.cooperman@tamu.edu</t>
   </si>
   <si>
-    <t>University of Texas El Paso</t>
-  </si>
-  <si>
     <t>amayer2@utep.edu</t>
   </si>
   <si>
@@ -642,27 +636,6 @@
     <t>Amonkar, Yash Vijay</t>
   </si>
   <si>
-    <t>Muñoz, Ángel G.</t>
-  </si>
-  <si>
-    <t>Mason, Simon J.</t>
-  </si>
-  <si>
-    <t>Pastén, Max</t>
-  </si>
-  <si>
-    <t>Dirección de Meteorología e Hidrología, Paraguay</t>
-  </si>
-  <si>
-    <t>agmunoz@iri.columbia.edu</t>
-  </si>
-  <si>
-    <t>simon@iri.columbia.edu</t>
-  </si>
-  <si>
-    <t>maxpasten@gmail.com</t>
-  </si>
-  <si>
     <t>G:</t>
   </si>
   <si>
@@ -760,6 +733,144 @@
   </si>
   <si>
     <t>s.munoz@northeastern.edu</t>
+  </si>
+  <si>
+    <t>Wutich, Amber</t>
+  </si>
+  <si>
+    <t>Thompson, Patrick</t>
+  </si>
+  <si>
+    <t>Jepson, Wendy</t>
+  </si>
+  <si>
+    <t>Stoler, Justin</t>
+  </si>
+  <si>
+    <t>Jantraina, Anish</t>
+  </si>
+  <si>
+    <t>Nelson-Nuñez, Jami</t>
+  </si>
+  <si>
+    <t>Westerhoff, Paul</t>
+  </si>
+  <si>
+    <t>Walker, Shane W.</t>
+  </si>
+  <si>
+    <t>Arizona State University</t>
+  </si>
+  <si>
+    <t>awutich@asu.edu</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>patrick.thomson@ouce.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>wjepson@tamu.edu</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>stoler@miami.edu</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>acooperman@email.gwu.edu</t>
+  </si>
+  <si>
+    <t>ajantrania@tamu.edu</t>
+  </si>
+  <si>
+    <t>University of Texas at El Paso</t>
+  </si>
+  <si>
+    <t>University of New Mexico</t>
+  </si>
+  <si>
+    <t>jaminunez@unm.edu</t>
+  </si>
+  <si>
+    <t>p.westerhoff@asu.edu</t>
+  </si>
+  <si>
+    <t>Liu, Lu</t>
+  </si>
+  <si>
+    <t>Iowa State University</t>
+  </si>
+  <si>
+    <t>luliu@iastate.edu</t>
+  </si>
+  <si>
+    <t>Dunne, Kieran</t>
+  </si>
+  <si>
+    <t>kdunne@caltech.edu</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Murphy, Kelsey</t>
+  </si>
+  <si>
+    <t>Luo, Xinyue</t>
+  </si>
+  <si>
+    <t>xl91@rice.edu</t>
+  </si>
+  <si>
+    <t>kam23@rice.edu</t>
+  </si>
+  <si>
+    <t>Lu, Yuchen</t>
+  </si>
+  <si>
+    <t>Lee, Benjamin Seiyon</t>
+  </si>
+  <si>
+    <t>George Mason University</t>
+  </si>
+  <si>
+    <t>yl238@rice.edu</t>
+  </si>
+  <si>
+    <t>slee287@gmu.edu</t>
+  </si>
+  <si>
+    <t>O'Donnell, Michelle</t>
+  </si>
+  <si>
+    <t>odonnell.miche@northeastern.edu</t>
+  </si>
+  <si>
+    <t>Kazadi, Arnold</t>
+  </si>
+  <si>
+    <t>Silva, Arlei Lopes da</t>
+  </si>
+  <si>
+    <t>Sebasetian, Antonia</t>
+  </si>
+  <si>
+    <t>University of North Carolina</t>
+  </si>
+  <si>
+    <t>akn7@rice.edu</t>
+  </si>
+  <si>
+    <t>arlei@rice.edu</t>
+  </si>
+  <si>
+    <t>sebaanto@email.unc.edu</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1069,33 +1180,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1111,11 +1213,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1123,7 +1225,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1147,16 +1249,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1165,27 +1261,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1204,11 +1297,11 @@
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1227,7 +1320,7 @@
       <alignment horizontal="centerContinuous" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1236,19 +1329,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1265,36 +1346,35 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2404,7 +2484,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TableA" displayName="TableA" ref="A16:D19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TableA" displayName="TableA" ref="A16:D18" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Your Name:" dataDxfId="40"/>
@@ -2421,8 +2501,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TableD23" displayName="TableD23" ref="A25:E29" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A25:E29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TableD23" displayName="TableD23" ref="A24:E28" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A24:E28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name:" dataDxfId="31"/>
@@ -2440,10 +2520,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A47:E89" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A47:E89" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:E89">
-    <sortCondition ref="E47:E89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E99" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E99" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E99">
+    <sortCondition ref="A47:A99"/>
+    <sortCondition ref="E47:E99"/>
+    <sortCondition ref="B47:B99"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2462,8 +2544,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A96:E101" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A96:E101" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A106:E111" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A106:E111" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2481,10 +2563,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableC" displayName="TableC" ref="A34:D40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A34:D40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:D40">
-    <sortCondition ref="B34:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableC" displayName="TableC" ref="A33:D39" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A33:D39" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:D39">
+    <sortCondition ref="B33:B39"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="3" dataDxfId="3"/>
@@ -2707,10 +2789,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2728,1236 +2810,1502 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="53">
-        <v>44196</v>
-      </c>
+      <c r="D17" s="47"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="52" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="47" t="s">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="47" t="s">
+      <c r="C46" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E46" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="54" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="50">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="50">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="50">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="50">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="11">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="11">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="50">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="50">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="50">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="50">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="C65" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="58">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="50">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="58">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="58">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="58">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="11">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="50">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="50">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="58">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="50">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="50">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="50">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="6" t="s">
+      <c r="C95" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="54">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="50">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="54">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="50">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="54">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="47" t="s">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="48" t="s">
+      <c r="D106" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="59">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="59">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="59">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="59">
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="59">
-        <v>43623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="14">
-        <v>43817</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="59">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="59">
-        <v>44180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="14">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="14">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="68">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" s="68">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="68">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75" s="59">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" s="59">
-        <v>44719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="69">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="69">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="70">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E80" s="59">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" s="59">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="59"/>
-    </row>
-    <row r="83" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="66"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59"/>
-    </row>
-    <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="66"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="59"/>
-    </row>
-    <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="66"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="59"/>
-    </row>
-    <row r="86" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59"/>
-    </row>
-    <row r="87" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="59"/>
-    </row>
-    <row r="88" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
-    </row>
-    <row r="89" spans="1:5" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="59"/>
-    </row>
-    <row r="90" spans="1:5" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" s="26" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-    </row>
-    <row r="92" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
-    </row>
-    <row r="94" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
-    </row>
-    <row r="95" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-    </row>
-    <row r="98" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="14"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="14"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26:A29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:A28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"R:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A97:A101" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A107:A111" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A40" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A71:A78 A48:A69" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A65 A67:A99" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
-    <hyperlink ref="D56" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
-    <hyperlink ref="D53" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
-    <hyperlink ref="D60" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
-    <hyperlink ref="D68" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
-    <hyperlink ref="D69" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
-    <hyperlink ref="D70" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D47" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
+    <hyperlink ref="D52" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
+    <hyperlink ref="D49" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
+    <hyperlink ref="D55" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
+    <hyperlink ref="D59" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
+    <hyperlink ref="D60" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
+    <hyperlink ref="D61" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D71" r:id="rId8" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
+    <hyperlink ref="D68" r:id="rId9" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
+    <hyperlink ref="D64" r:id="rId10" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
+    <hyperlink ref="D67" r:id="rId11" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
+    <hyperlink ref="D62" r:id="rId12" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
+    <hyperlink ref="D63" r:id="rId13" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
+    <hyperlink ref="D65" r:id="rId14" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
+    <hyperlink ref="D66" r:id="rId15" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
+    <hyperlink ref="D70" r:id="rId16" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
+    <hyperlink ref="D75" r:id="rId17" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
+    <hyperlink ref="D83" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
+    <hyperlink ref="D87" r:id="rId19" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId8"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId20"/>
   <tableParts count="5">
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B2A4DA-BAB7-5B4C-8630-6B2E5FB19A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F26F0-1581-C344-8187-9A861761528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="37420" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1354,27 +1354,15 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2791,8 +2779,8 @@
   </sheetPr>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3511,172 +3499,172 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="55" t="s">
+      <c r="A62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="55" t="s">
+      <c r="A63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="55" t="s">
+      <c r="A66" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="55" t="s">
+      <c r="A67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="55" t="s">
+      <c r="A68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="55" t="s">
+      <c r="A70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="56">
         <v>44783</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="59" t="s">
+      <c r="A71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="56">
         <v>44783</v>
       </c>
     </row>
@@ -3735,10 +3723,10 @@
       <c r="A75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D75" s="18" t="s">
@@ -3786,16 +3774,16 @@
       <c r="A78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="56">
         <v>44904</v>
       </c>
     </row>
@@ -3803,16 +3791,16 @@
       <c r="A79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="56">
         <v>44904</v>
       </c>
     </row>
@@ -3820,16 +3808,16 @@
       <c r="A80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E80" s="56">
         <v>44904</v>
       </c>
     </row>
@@ -3854,7 +3842,7 @@
       <c r="A82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="60" t="s">
+      <c r="B82" s="57" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -3863,7 +3851,7 @@
       <c r="D82" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3871,16 +3859,16 @@
       <c r="A83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="10" t="s">
         <v>166</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E83" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3905,16 +3893,16 @@
       <c r="A85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3922,16 +3910,16 @@
       <c r="A86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3939,16 +3927,16 @@
       <c r="A87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3982,7 +3970,7 @@
       <c r="D89" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="58">
+      <c r="E89" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -3990,16 +3978,16 @@
       <c r="A90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -4007,16 +3995,16 @@
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C91" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E91" s="58">
+      <c r="E91" s="56">
         <v>44910</v>
       </c>
     </row>
@@ -4112,7 +4100,7 @@
       <c r="B97" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D97" s="18" t="s">
@@ -4146,7 +4134,7 @@
       <c r="B99" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D99" s="18" t="s">

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F26F0-1581-C344-8187-9A861761528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C6E8D2-409D-8845-AFDD-AA4DA6306937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="37420" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="20" windowWidth="32480" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="252">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -858,9 +858,6 @@
     <t>Silva, Arlei Lopes da</t>
   </si>
   <si>
-    <t>Sebasetian, Antonia</t>
-  </si>
-  <si>
     <t>University of North Carolina</t>
   </si>
   <si>
@@ -871,6 +868,210 @@
   </si>
   <si>
     <t>sebaanto@email.unc.edu</t>
+  </si>
+  <si>
+    <t>Singh, Deepti</t>
+  </si>
+  <si>
+    <t>Bekris, Yianna</t>
+  </si>
+  <si>
+    <t>Rogers, Cassandra</t>
+  </si>
+  <si>
+    <t>Coffel, Ethan D.</t>
+  </si>
+  <si>
+    <t>Kalashnikov, Dmitri A</t>
+  </si>
+  <si>
+    <t>Pollack, Adam</t>
+  </si>
+  <si>
+    <t>Campbell, Jentry E.</t>
+  </si>
+  <si>
+    <t>Condon, Madison</t>
+  </si>
+  <si>
+    <t>Cooper, Courttney</t>
+  </si>
+  <si>
+    <t>Coronese, Matteo</t>
+  </si>
+  <si>
+    <t>Hegde, Prabhat</t>
+  </si>
+  <si>
+    <t>Helgeson, Casey</t>
+  </si>
+  <si>
+    <t>Kwakkel, Jan</t>
+  </si>
+  <si>
+    <t>Lesk, Corey</t>
+  </si>
+  <si>
+    <t>Mankin, Justin</t>
+  </si>
+  <si>
+    <t>Mayfield, Erin</t>
+  </si>
+  <si>
+    <t>Roth, Samantha</t>
+  </si>
+  <si>
+    <t>Srikrishnan, Vivek</t>
+  </si>
+  <si>
+    <t>Tuana, Nancy</t>
+  </si>
+  <si>
+    <t>Sebastian, Antonia</t>
+  </si>
+  <si>
+    <t>Pitchon, Emilia</t>
+  </si>
+  <si>
+    <t>Wallace, Elizabeth Jane</t>
+  </si>
+  <si>
+    <t>Garcia, Matthew</t>
+  </si>
+  <si>
+    <t>Juan, Andrew</t>
+  </si>
+  <si>
+    <t>Bedient, Philip</t>
+  </si>
+  <si>
+    <t>Nielsen-Gammon, John W</t>
+  </si>
+  <si>
+    <t>Niraula, Rewati</t>
+  </si>
+  <si>
+    <t>Schmeltzer, Katlyn</t>
+  </si>
+  <si>
+    <t>Cohan, Daniel</t>
+  </si>
+  <si>
+    <t>Muñoz Fuerte, Manuela</t>
+  </si>
+  <si>
+    <t>Texas Water Development Board</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Berry College</t>
+  </si>
+  <si>
+    <t>Scuola Superiore Sant’Anna, Pisa, ITALY</t>
+  </si>
+  <si>
+    <t>The Pennsylvania State University</t>
+  </si>
+  <si>
+    <t>Delft University of Technology</t>
+  </si>
+  <si>
+    <t>Washington State University Vancouer</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>andrew.juan@tamu.edu</t>
+  </si>
+  <si>
+    <t>bedient@rice.edu</t>
+  </si>
+  <si>
+    <t>kes20@rice.edu</t>
+  </si>
+  <si>
+    <t>cohan@rice.edu</t>
+  </si>
+  <si>
+    <t>n-g@tamu.edu</t>
+  </si>
+  <si>
+    <t>Rewati.Niraula@twdb.texas.gov</t>
+  </si>
+  <si>
+    <t>ep33@rice.edu</t>
+  </si>
+  <si>
+    <t>ejwallac@odu.edu</t>
+  </si>
+  <si>
+    <t>Old Dominion University</t>
+  </si>
+  <si>
+    <t>Adam.B.Pollack@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>Jentry.E.Campbell@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>mecondon@bu.edu</t>
+  </si>
+  <si>
+    <t>ccooper@berry.edu</t>
+  </si>
+  <si>
+    <t>matteo.coronese@santannapisa.it</t>
+  </si>
+  <si>
+    <t>Prabhat.Hegde.TH@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>cmh455@psu.edu</t>
+  </si>
+  <si>
+    <t>J.H.Kwakkel@tudelft.nl</t>
+  </si>
+  <si>
+    <t>corey.s.lesk@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>justin.s.mankin@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>Erin.N.Mayfield@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>svr5482@psu.edu</t>
+  </si>
+  <si>
+    <t>viveks@cornell.edu</t>
+  </si>
+  <si>
+    <t>nat3@psu.edu</t>
+  </si>
+  <si>
+    <t>deepti.singh@wsu.edu</t>
+  </si>
+  <si>
+    <t>yianna.bekris@wsu.edu</t>
+  </si>
+  <si>
+    <t>cassandra.rogers@wsu.edu</t>
+  </si>
+  <si>
+    <t>edcoffel@syr.edu</t>
+  </si>
+  <si>
+    <t>dmitri.kalashnikov@wsu.edu</t>
+  </si>
+  <si>
+    <t>manuela.munozf@tamu.edu</t>
+  </si>
+  <si>
+    <t>msg6@rice.edu</t>
   </si>
 </sst>
 </file>
@@ -998,11 +1199,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1166,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1354,15 +1557,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2508,12 +2715,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E99" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A46:E99" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E99">
-    <sortCondition ref="A47:A99"/>
-    <sortCondition ref="E47:E99"/>
-    <sortCondition ref="B47:B99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E132" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E132" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E132">
+    <sortCondition ref="E46:E132"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2532,8 +2737,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A106:E111" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A106:E111" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A139:E144" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A139:E144" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2777,10 +2982,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3401,16 +3606,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="11">
-        <v>44539</v>
+        <v>112</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3418,16 +3623,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="11">
-        <v>44539</v>
+        <v>117</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3435,13 +3640,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E58" s="50">
         <v>44545</v>
@@ -3452,13 +3657,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E59" s="50">
         <v>44545</v>
@@ -3468,34 +3673,34 @@
       <c r="A60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>110</v>
+      <c r="B60" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>119</v>
+        <v>44</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="E60" s="50">
-        <v>44545</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="50">
-        <v>44545</v>
+        <v>63</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="11">
+        <v>44909</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3503,16 +3708,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="56">
-        <v>44783</v>
+        <v>169</v>
+      </c>
+      <c r="E62" s="55">
+        <v>44910</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,16 +3725,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="56">
-        <v>44783</v>
+        <v>44</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="55">
+        <v>45005</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,50 +3742,50 @@
         <v>5</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="56">
-        <v>44783</v>
+        <v>222</v>
+      </c>
+      <c r="E64" s="55">
+        <v>45005</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="56">
-        <v>44783</v>
+        <v>223</v>
+      </c>
+      <c r="E65" s="55">
+        <v>45005</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>144</v>
+      <c r="A66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" s="56">
-        <v>44783</v>
+        <v>44</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3588,16 +3793,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="56">
-        <v>44783</v>
+        <v>44</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3605,16 +3810,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="56">
-        <v>44783</v>
+        <v>44</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3622,67 +3827,67 @@
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="56">
-        <v>44783</v>
+        <v>163</v>
+      </c>
+      <c r="E69" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>145</v>
+      <c r="B70" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="56">
-        <v>44783</v>
+        <v>44</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="57" t="s">
-        <v>139</v>
+      <c r="B71" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="56">
-        <v>44783</v>
+        <v>130</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="50">
-        <v>44852</v>
+        <v>138</v>
+      </c>
+      <c r="E72" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,16 +3895,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="50">
-        <v>44852</v>
+        <v>154</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3707,16 +3912,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="50">
-        <v>44852</v>
+        <v>81</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3724,16 +3929,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E75" s="50">
-        <v>44852</v>
+        <v>151</v>
+      </c>
+      <c r="E75" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3741,33 +3946,33 @@
         <v>5</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="50">
-        <v>44852</v>
+        <v>157</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>122</v>
+      <c r="B77" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="50">
-        <v>44852</v>
+        <v>158</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,16 +3980,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="56">
-        <v>44904</v>
+        <v>153</v>
+      </c>
+      <c r="E78" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3792,16 +3997,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="56">
-        <v>44904</v>
+        <v>150</v>
+      </c>
+      <c r="E79" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3809,33 +4014,33 @@
         <v>5</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="56">
-        <v>44904</v>
+        <v>84</v>
+      </c>
+      <c r="E80" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="11">
-        <v>44909</v>
+        <v>147</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3843,16 +4048,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E82" s="56">
-        <v>44910</v>
+        <v>147</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="55">
+        <v>45119</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,33 +4065,33 @@
         <v>5</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E83" s="56">
-        <v>44910</v>
+        <v>77</v>
+      </c>
+      <c r="D83" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="11">
+        <v>45120</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D84" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E84" s="50">
-        <v>44910</v>
+        <v>79</v>
+      </c>
+      <c r="E84" s="11">
+        <v>45120</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,16 +4099,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" s="56">
-        <v>44910</v>
+        <v>224</v>
+      </c>
+      <c r="E85" s="58">
+        <v>45154</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3911,33 +4116,33 @@
         <v>5</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" s="56">
-        <v>44910</v>
+        <v>225</v>
+      </c>
+      <c r="E86" s="55">
+        <v>45154</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E87" s="56">
-        <v>44910</v>
+        <v>61</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="55">
+        <v>45231</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3953,42 +4158,42 @@
       <c r="D88" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="50">
-        <v>44910</v>
+      <c r="E88" s="55">
+        <v>45231</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E89" s="56">
-        <v>44910</v>
+        <v>43</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="55">
+        <v>45231</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="56">
-        <v>44910</v>
+        <v>43</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="55">
+        <v>45231</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3996,16 +4201,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="56">
-        <v>44910</v>
+        <v>226</v>
+      </c>
+      <c r="E91" s="55">
+        <v>45271</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4013,55 +4218,55 @@
         <v>5</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="50">
-        <v>44929</v>
+        <v>214</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="55">
+        <v>45271</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" s="50">
-        <v>45001</v>
+        <v>173</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="58">
+        <v>45272</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="50">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="55">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>89</v>
@@ -4072,30 +4277,30 @@
       <c r="D95" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="54">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="E95" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E96" s="50">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>88</v>
@@ -4106,30 +4311,30 @@
       <c r="D97" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E97" s="54">
-        <v>44770</v>
+      <c r="E97" s="55">
+        <v>45273</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="50">
-        <v>44770</v>
+        <v>157</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="55">
+        <v>45273</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>102</v>
@@ -4140,128 +4345,689 @@
       <c r="D99" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="54">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="31" t="s">
+      <c r="E99" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="55">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E108" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E110" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E111" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" s="58">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="58">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="55">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="55">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="55">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" s="55">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E131" s="55">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" s="58">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-    </row>
-    <row r="102" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="32" t="s">
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="33"/>
-    </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="32" t="s">
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="33"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="33"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="5" t="s">
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="33"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="33"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="40" t="s">
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B139" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C139" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D139" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="42" t="s">
+      <c r="E139" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="12"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="11"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:A28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"R:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A107:A111" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A140:A144" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A65 A67:A99" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A64 A66:A93" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4270,30 +5036,53 @@
     <hyperlink ref="D52" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
     <hyperlink ref="D49" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
     <hyperlink ref="D55" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
-    <hyperlink ref="D59" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
-    <hyperlink ref="D60" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
-    <hyperlink ref="D61" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
-    <hyperlink ref="D71" r:id="rId8" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
-    <hyperlink ref="D68" r:id="rId9" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
-    <hyperlink ref="D64" r:id="rId10" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
-    <hyperlink ref="D67" r:id="rId11" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
-    <hyperlink ref="D62" r:id="rId12" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
-    <hyperlink ref="D63" r:id="rId13" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
-    <hyperlink ref="D65" r:id="rId14" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
-    <hyperlink ref="D66" r:id="rId15" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
-    <hyperlink ref="D70" r:id="rId16" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
-    <hyperlink ref="D75" r:id="rId17" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
-    <hyperlink ref="D83" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
-    <hyperlink ref="D87" r:id="rId19" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
+    <hyperlink ref="D57" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
+    <hyperlink ref="D58" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
+    <hyperlink ref="D59" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D82" r:id="rId8" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
+    <hyperlink ref="D79" r:id="rId9" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
+    <hyperlink ref="D75" r:id="rId10" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
+    <hyperlink ref="D78" r:id="rId11" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
+    <hyperlink ref="D73" r:id="rId12" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
+    <hyperlink ref="D74" r:id="rId13" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
+    <hyperlink ref="D76" r:id="rId14" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
+    <hyperlink ref="D77" r:id="rId15" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
+    <hyperlink ref="D81" r:id="rId16" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
+    <hyperlink ref="D69" r:id="rId17" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
+    <hyperlink ref="D103" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
+    <hyperlink ref="D62" r:id="rId19" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
+    <hyperlink ref="D64" r:id="rId20" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
+    <hyperlink ref="D65" r:id="rId21" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
+    <hyperlink ref="D85" r:id="rId22" xr:uid="{A8F74727-D3DC-2A40-9759-9BA70515EFBB}"/>
+    <hyperlink ref="D86" r:id="rId23" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
+    <hyperlink ref="D91" r:id="rId24" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
+    <hyperlink ref="D92" r:id="rId25" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
+    <hyperlink ref="D107" r:id="rId26" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
+    <hyperlink ref="D108" r:id="rId27" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
+    <hyperlink ref="D113" r:id="rId28" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
+    <hyperlink ref="D114" r:id="rId29" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
+    <hyperlink ref="D115" r:id="rId30" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
+    <hyperlink ref="D116" r:id="rId31" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
+    <hyperlink ref="D117" r:id="rId32" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
+    <hyperlink ref="D118" r:id="rId33" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
+    <hyperlink ref="D119" r:id="rId34" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
+    <hyperlink ref="D120" r:id="rId35" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
+    <hyperlink ref="D121" r:id="rId36" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
+    <hyperlink ref="D122" r:id="rId37" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
+    <hyperlink ref="D123" r:id="rId38" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
+    <hyperlink ref="D124" r:id="rId39" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
+    <hyperlink ref="D125" r:id="rId40" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
+    <hyperlink ref="D126" r:id="rId41" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
+    <hyperlink ref="D128" r:id="rId42" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId20"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId43"/>
   <tableParts count="5">
-    <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
-    <tablePart r:id="rId23"/>
-    <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C6E8D2-409D-8845-AFDD-AA4DA6306937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D4927-9141-3542-8265-1AA05DF622FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="20" windowWidth="32480" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="20" windowWidth="18960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="264">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -1072,6 +1072,42 @@
   </si>
   <si>
     <t>msg6@rice.edu</t>
+  </si>
+  <si>
+    <t>Padgett, Jamie</t>
+  </si>
+  <si>
+    <t>Ensor, Katherine</t>
+  </si>
+  <si>
+    <t>Gori, Avantika</t>
+  </si>
+  <si>
+    <t>Paolo Bocchini</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>Maryam Rahnemoonfar</t>
+  </si>
+  <si>
+    <t>David Casagrande</t>
+  </si>
+  <si>
+    <t>Brian Davison</t>
+  </si>
+  <si>
+    <t>Yi-Chen Yang</t>
+  </si>
+  <si>
+    <t>Kowal, Daniel R.</t>
+  </si>
+  <si>
+    <t>Liu, Chunshan</t>
+  </si>
+  <si>
+    <t>Vannucci, Marina</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1364,12 +1400,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1570,6 +1621,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2715,10 +2794,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E132" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A46:E132" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E132">
-    <sortCondition ref="E46:E132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E141" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E141" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E141">
+    <sortCondition ref="E46:E141"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2737,8 +2816,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A139:E144" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A139:E144" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A148:E153" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A148:E153" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2982,10 +3061,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4283,87 +4362,87 @@
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>82</v>
+        <v>157</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="E96" s="55">
         <v>45273</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E97" s="55">
         <v>45273</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>1</v>
+      <c r="A98" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E98" s="55">
+        <v>44</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="54">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" s="54">
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E99" s="55">
-        <v>45273</v>
-      </c>
-    </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>1</v>
+      <c r="A100" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E100" s="55">
-        <v>45273</v>
+        <v>130</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="54">
+        <v>45453</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4371,33 +4450,33 @@
         <v>5</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" s="55">
-        <v>45273</v>
+      <c r="D101" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101" s="54">
+        <v>45453</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" s="55">
-        <v>45273</v>
+        <v>130</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="54">
+        <v>45453</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4405,13 +4484,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="E103" s="54">
         <v>45273</v>
@@ -4422,15 +4501,15 @@
         <v>5</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="55">
+        <v>230</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="54">
         <v>45273</v>
       </c>
     </row>
@@ -4439,15 +4518,15 @@
         <v>5</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" s="55">
+        <v>250</v>
+      </c>
+      <c r="E105" s="54">
         <v>45273</v>
       </c>
     </row>
@@ -4456,16 +4535,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E106" s="54">
-        <v>45273</v>
+        <v>181</v>
+      </c>
+      <c r="E106" s="55">
+        <v>45323</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4473,16 +4552,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E107" s="54">
-        <v>45273</v>
+        <v>183</v>
+      </c>
+      <c r="E107" s="55">
+        <v>45323</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4490,16 +4569,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E108" s="54">
-        <v>45273</v>
+        <v>182</v>
+      </c>
+      <c r="E108" s="55">
+        <v>45323</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4507,16 +4586,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E109" s="54">
-        <v>45273</v>
+        <v>231</v>
+      </c>
+      <c r="E109" s="55">
+        <v>45432</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4524,13 +4603,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="E110" s="55">
         <v>45323</v>
@@ -4541,13 +4620,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="E111" s="55">
         <v>45323</v>
@@ -4558,13 +4637,13 @@
         <v>5</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E112" s="55">
         <v>45323</v>
@@ -4575,13 +4654,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E113" s="55">
         <v>45323</v>
@@ -4592,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E114" s="55">
         <v>45323</v>
@@ -4609,13 +4688,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E115" s="55">
         <v>45323</v>
@@ -4626,13 +4705,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E116" s="55">
         <v>45323</v>
@@ -4643,13 +4722,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E117" s="55">
         <v>45323</v>
@@ -4660,13 +4739,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E118" s="55">
         <v>45323</v>
@@ -4677,15 +4756,15 @@
         <v>5</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E119" s="55">
+        <v>241</v>
+      </c>
+      <c r="E119" s="58">
         <v>45323</v>
       </c>
     </row>
@@ -4694,15 +4773,15 @@
         <v>5</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E120" s="55">
+        <v>242</v>
+      </c>
+      <c r="E120" s="58">
         <v>45323</v>
       </c>
     </row>
@@ -4711,16 +4790,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E121" s="55">
-        <v>45323</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4728,13 +4807,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E122" s="55">
         <v>45323</v>
@@ -4745,16 +4824,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E123" s="58">
-        <v>45323</v>
+      <c r="D123" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="55">
+        <v>45432</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4762,16 +4841,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E124" s="58">
-        <v>45323</v>
+        <v>245</v>
+      </c>
+      <c r="E124" s="55">
+        <v>45351</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4779,16 +4858,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E125" s="55">
-        <v>45323</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4796,16 +4875,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E126" s="55">
-        <v>45323</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4813,16 +4892,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" s="49" t="s">
-        <v>136</v>
+        <v>221</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="E127" s="55">
-        <v>45323</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4830,198 +4909,317 @@
         <v>5</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E128" s="55">
+        <v>249</v>
+      </c>
+      <c r="E128" s="58">
         <v>45351</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="E129" s="55">
-        <v>45351</v>
+      <c r="A129" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="65">
+        <v>45427</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E130" s="55">
-        <v>45351</v>
+      <c r="A130" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65">
+        <v>45427</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E131" s="55">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="58">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="31" t="s">
+      <c r="A131" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C135" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="61">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="61">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="61">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="60"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="61"/>
+    </row>
+    <row r="142" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="32" t="s">
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+    </row>
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="33"/>
-    </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="32" t="s">
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="33"/>
+    </row>
+    <row r="145" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="33"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="33"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="5" t="s">
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="33"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="33"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="40" t="s">
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="41" t="s">
+      <c r="B148" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C148" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="41" t="s">
+      <c r="D148" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E148" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="12"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="12"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="11"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="12"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="11"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="17"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="12"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:A28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"R:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A140:A144" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A149:A153" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -5049,7 +5247,7 @@
     <hyperlink ref="D77" r:id="rId15" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
     <hyperlink ref="D81" r:id="rId16" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
     <hyperlink ref="D69" r:id="rId17" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
-    <hyperlink ref="D103" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
+    <hyperlink ref="D99" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
     <hyperlink ref="D62" r:id="rId19" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
     <hyperlink ref="D64" r:id="rId20" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
     <hyperlink ref="D65" r:id="rId21" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
@@ -5057,23 +5255,23 @@
     <hyperlink ref="D86" r:id="rId23" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
     <hyperlink ref="D91" r:id="rId24" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
     <hyperlink ref="D92" r:id="rId25" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
-    <hyperlink ref="D107" r:id="rId26" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
-    <hyperlink ref="D108" r:id="rId27" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
-    <hyperlink ref="D113" r:id="rId28" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
-    <hyperlink ref="D114" r:id="rId29" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
-    <hyperlink ref="D115" r:id="rId30" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
-    <hyperlink ref="D116" r:id="rId31" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
-    <hyperlink ref="D117" r:id="rId32" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
-    <hyperlink ref="D118" r:id="rId33" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
-    <hyperlink ref="D119" r:id="rId34" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
-    <hyperlink ref="D120" r:id="rId35" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
-    <hyperlink ref="D121" r:id="rId36" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
-    <hyperlink ref="D122" r:id="rId37" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
-    <hyperlink ref="D123" r:id="rId38" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
-    <hyperlink ref="D124" r:id="rId39" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
-    <hyperlink ref="D125" r:id="rId40" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
-    <hyperlink ref="D126" r:id="rId41" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
-    <hyperlink ref="D128" r:id="rId42" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
+    <hyperlink ref="D103" r:id="rId26" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
+    <hyperlink ref="D104" r:id="rId27" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
+    <hyperlink ref="D109" r:id="rId28" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
+    <hyperlink ref="D110" r:id="rId29" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
+    <hyperlink ref="D111" r:id="rId30" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
+    <hyperlink ref="D112" r:id="rId31" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
+    <hyperlink ref="D113" r:id="rId32" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
+    <hyperlink ref="D114" r:id="rId33" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
+    <hyperlink ref="D115" r:id="rId34" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
+    <hyperlink ref="D116" r:id="rId35" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
+    <hyperlink ref="D117" r:id="rId36" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
+    <hyperlink ref="D118" r:id="rId37" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
+    <hyperlink ref="D119" r:id="rId38" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
+    <hyperlink ref="D120" r:id="rId39" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
+    <hyperlink ref="D121" r:id="rId40" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
+    <hyperlink ref="D122" r:id="rId41" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
+    <hyperlink ref="D124" r:id="rId42" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId43"/>

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D4927-9141-3542-8265-1AA05DF622FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49D2BE-4AEF-A746-B19E-644AA6896CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="20" windowWidth="18960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="247">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -495,12 +495,6 @@
     <t>casey@engin.umass.edu</t>
   </si>
   <si>
-    <t>CSIRO Australia</t>
-  </si>
-  <si>
-    <t>michelleho84@gmail.com</t>
-  </si>
-  <si>
     <t>Carnegie Institute for Science</t>
   </si>
   <si>
@@ -519,36 +513,6 @@
     <t>Cornell University</t>
   </si>
   <si>
-    <t>ss3378@cornell.edu</t>
-  </si>
-  <si>
-    <t>Grantham Institute, LSE</t>
-  </si>
-  <si>
-    <t>v.roezer@lse.ac.uk</t>
-  </si>
-  <si>
-    <t>GFZ-Potsdam</t>
-  </si>
-  <si>
-    <t>heidi.kreibich@gfz-potsdam.de</t>
-  </si>
-  <si>
-    <t>kai.schroeter@gfz-potsdam.de</t>
-  </si>
-  <si>
-    <t>Deutsche Rückversicherung AG</t>
-  </si>
-  <si>
-    <t>meike.mueller@deutscherueck.de</t>
-  </si>
-  <si>
-    <t>nivedita.sairam@gfz-potsdam.de</t>
-  </si>
-  <si>
-    <t>bruno.merz@gfz-potsdam.de</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -588,51 +552,27 @@
     <t>Cooperman, Alicia Dailey</t>
   </si>
   <si>
-    <t>Merz, Bruno</t>
-  </si>
-  <si>
     <t>Farnham, David J.</t>
   </si>
   <si>
     <t>Johnson, David R.</t>
   </si>
   <si>
-    <t>Kreibich, Heidi</t>
-  </si>
-  <si>
     <t>Lamontagne, Jonathan</t>
   </si>
   <si>
-    <t>Schroter, Kai</t>
-  </si>
-  <si>
     <t>Keller, Klaus</t>
   </si>
   <si>
-    <t>Muller, Meike</t>
-  </si>
-  <si>
-    <t>Ho, Michelle</t>
-  </si>
-  <si>
     <t>Geldner, Nathan</t>
   </si>
   <si>
-    <t>Sairam, Nivedita</t>
-  </si>
-  <si>
-    <t>Steinschneider, Scott</t>
-  </si>
-  <si>
     <t>Walker, Shane</t>
   </si>
   <si>
     <t>Modi, Vijay</t>
   </si>
   <si>
-    <t>Rözer, Viktor</t>
-  </si>
-  <si>
     <t>Amonkar, Yash Vijay</t>
   </si>
   <si>
@@ -1108,6 +1048,15 @@
   </si>
   <si>
     <t>Vannucci, Marina</t>
+  </si>
+  <si>
+    <t>Liu, Yuhao</t>
+  </si>
+  <si>
+    <t>Balakrishnan, Guha</t>
+  </si>
+  <si>
+    <t>Veeraraghavan, Ashok</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1596,10 +1545,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1616,39 +1561,67 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2794,10 +2767,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E141" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A46:E141" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E141">
-    <sortCondition ref="E46:E141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E136" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E136" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E136">
+    <sortCondition descending="1" ref="A47:A136"/>
+    <sortCondition ref="B47:B136"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2816,8 +2790,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A148:E153" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A148:E153" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A143:E148" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A143:E148" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -3061,10 +3035,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3306,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>45</v>
@@ -3319,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>46</v>
@@ -3332,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>47</v>
@@ -3386,7 +3360,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>56</v>
@@ -3400,7 +3374,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>50</v>
@@ -3414,7 +3388,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>48</v>
@@ -3428,7 +3402,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>54</v>
@@ -3442,7 +3416,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>52</v>
@@ -3528,190 +3502,172 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>5</v>
+      <c r="A47" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="50">
-        <v>43551</v>
+        <v>239</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>5</v>
+      <c r="A48" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="50">
-        <v>43551</v>
+        <v>238</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="62"/>
+      <c r="E48" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="50">
-        <v>43551</v>
+      <c r="A49" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="50">
-        <v>43551</v>
+      <c r="A50" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="50">
-        <v>43551</v>
+      <c r="A51" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="62"/>
+      <c r="E51" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>5</v>
+      <c r="A52" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="50">
-        <v>43551</v>
+        <v>237</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="62"/>
+      <c r="E52" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>5</v>
+      <c r="A53" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="50">
-        <v>43623</v>
+        <v>118</v>
+      </c>
+      <c r="E53" s="54">
+        <v>45119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>5</v>
+      <c r="A54" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="50">
-        <v>43922</v>
+        <v>44</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="50">
-        <v>44180</v>
+      <c r="A55" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="62"/>
+      <c r="E55" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>5</v>
+      <c r="A56" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="50">
-        <v>44545</v>
+        <v>240</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="53">
+        <v>45427</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="71" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="50">
-        <v>44545</v>
+        <v>43</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="54">
+        <v>45231</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3719,101 +3675,99 @@
         <v>5</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>119</v>
+        <v>92</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>93</v>
       </c>
       <c r="E58" s="50">
         <v>44545</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="50">
-        <v>44545</v>
+      <c r="A59" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="53">
+        <v>45426</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="51" t="s">
-        <v>122</v>
+      <c r="B60" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="50">
-        <v>44852</v>
+      <c r="D60" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="54">
+        <v>45005</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="11">
-        <v>44909</v>
+        <v>200</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="54">
+        <v>45351</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>168</v>
+      <c r="B62" s="67" t="s">
+        <v>170</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="55">
-        <v>44910</v>
+        <v>212</v>
+      </c>
+      <c r="E62" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="55">
-        <v>45005</v>
+        <v>95</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="50">
+        <v>44180</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3821,50 +3775,50 @@
         <v>5</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="55">
-        <v>45005</v>
+        <v>228</v>
+      </c>
+      <c r="E64" s="54">
+        <v>45351</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="55">
-        <v>45005</v>
+        <v>205</v>
+      </c>
+      <c r="E65" s="54">
+        <v>45154</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="51" t="s">
-        <v>123</v>
+      <c r="B66" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="50">
-        <v>45040</v>
+        <v>195</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3872,16 +3826,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="50">
-        <v>45040</v>
+        <v>196</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3889,50 +3843,50 @@
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="50">
-        <v>45040</v>
+      <c r="E68" s="54">
+        <v>45119</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="50">
-        <v>45040</v>
+        <v>134</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="54">
+        <v>45273</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="57" t="s">
-        <v>124</v>
+      <c r="B70" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="50">
-        <v>45040</v>
+        <v>197</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3940,84 +3894,84 @@
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="55">
-        <v>45119</v>
+        <v>117</v>
+      </c>
+      <c r="E71" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="55">
-        <v>45119</v>
+        <v>97</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>89</v>
+      <c r="B73" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="55">
-        <v>45119</v>
+        <v>44</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>143</v>
+      <c r="B74" s="67" t="s">
+        <v>144</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="55">
-        <v>45119</v>
+        <v>145</v>
+      </c>
+      <c r="E74" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="55">
-        <v>45119</v>
+        <v>59</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="54">
+        <v>45231</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4025,16 +3979,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="55">
-        <v>45119</v>
+        <v>44</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="54">
+        <v>45005</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4042,16 +3996,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="55">
-        <v>45119</v>
+        <v>65</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="69">
+        <v>45120</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4059,16 +4013,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="55">
-        <v>45119</v>
+        <v>44</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4076,16 +4030,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="55">
-        <v>45119</v>
+        <v>216</v>
+      </c>
+      <c r="E79" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4093,16 +4047,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="55">
-        <v>45119</v>
+        <v>198</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4110,15 +4064,15 @@
         <v>5</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" s="55">
+        <v>136</v>
+      </c>
+      <c r="E81" s="54">
         <v>45119</v>
       </c>
     </row>
@@ -4126,16 +4080,16 @@
       <c r="A82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="57" t="s">
-        <v>139</v>
+      <c r="B82" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" s="55">
+        <v>131</v>
+      </c>
+      <c r="E82" s="54">
         <v>45119</v>
       </c>
     </row>
@@ -4144,13 +4098,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E83" s="11">
         <v>45120</v>
@@ -4161,16 +4115,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="11">
-        <v>45120</v>
+        <v>69</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="54">
+        <v>45005</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4178,16 +4132,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="58">
-        <v>45154</v>
+        <v>229</v>
+      </c>
+      <c r="E85" s="56">
+        <v>45351</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4195,118 +4149,116 @@
         <v>5</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E86" s="55">
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="54">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="54">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="54">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="54">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="50">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="54">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D92" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="55">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="55">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" s="55">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="55">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="E91" s="55">
-        <v>45271</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E92" s="55">
-        <v>45271</v>
+      <c r="E92" s="11">
+        <v>44909</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4314,15 +4266,15 @@
         <v>5</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E93" s="58">
+        <v>155</v>
+      </c>
+      <c r="E93" s="54">
         <v>45272</v>
       </c>
     </row>
@@ -4331,84 +4283,80 @@
         <v>5</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="54">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E94" s="55">
-        <v>45272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" s="55">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="D95" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="50">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E96" s="55">
-        <v>45273</v>
+        <v>44</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="54">
+        <v>45417</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="55">
-        <v>45273</v>
+        <v>143</v>
+      </c>
+      <c r="E97" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="10" t="s">
+      <c r="A98" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E98" s="54">
-        <v>45453</v>
+      <c r="D98" s="18"/>
+      <c r="E98" s="53">
+        <v>45426</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4416,16 +4364,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E99" s="54">
-        <v>45273</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4433,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>138</v>
+        <v>44</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="E100" s="54">
-        <v>45453</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4450,16 +4398,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="E101" s="54">
-        <v>45453</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4467,30 +4415,30 @@
         <v>5</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="E102" s="54">
-        <v>45453</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="E103" s="54">
         <v>45273</v>
@@ -4501,16 +4449,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E104" s="54">
-        <v>45273</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4518,16 +4466,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>250</v>
+        <v>43</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="E105" s="54">
-        <v>45273</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4535,16 +4483,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E106" s="55">
-        <v>45323</v>
+        <v>230</v>
+      </c>
+      <c r="E106" s="53">
+        <v>45273</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4552,16 +4500,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="55">
-        <v>45323</v>
+        <v>110</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="54">
+        <v>45119</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4569,16 +4517,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E108" s="55">
-        <v>45323</v>
+        <v>110</v>
+      </c>
+      <c r="D108" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4586,16 +4534,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E109" s="55">
-        <v>45432</v>
+        <v>150</v>
+      </c>
+      <c r="E109" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4603,16 +4551,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E110" s="55">
-        <v>45323</v>
+        <v>139</v>
+      </c>
+      <c r="E110" s="54">
+        <v>45119</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4620,16 +4568,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111" s="55">
-        <v>45323</v>
+        <v>206</v>
+      </c>
+      <c r="E111" s="56">
+        <v>45271</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4637,16 +4585,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="E112" s="55">
-        <v>45323</v>
+        <v>207</v>
+      </c>
+      <c r="E112" s="56">
+        <v>45271</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4654,16 +4602,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E113" s="55">
-        <v>45323</v>
+        <v>157</v>
+      </c>
+      <c r="E113" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4671,16 +4619,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E114" s="55">
-        <v>45323</v>
+        <v>208</v>
+      </c>
+      <c r="E114" s="53">
+        <v>45273</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4688,16 +4636,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="55">
-        <v>45323</v>
+        <v>211</v>
+      </c>
+      <c r="E115" s="54">
+        <v>45432</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4705,16 +4653,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E116" s="55">
-        <v>45323</v>
+        <v>100</v>
+      </c>
+      <c r="E116" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4722,16 +4670,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="55">
-        <v>45323</v>
+        <v>227</v>
+      </c>
+      <c r="E117" s="54">
+        <v>45351</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4739,15 +4687,15 @@
         <v>5</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="D118" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E118" s="55">
+        <v>222</v>
+      </c>
+      <c r="E118" s="54">
         <v>45323</v>
       </c>
     </row>
@@ -4756,16 +4704,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E119" s="58">
-        <v>45323</v>
+        <v>204</v>
+      </c>
+      <c r="E119" s="54">
+        <v>45154</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4773,15 +4721,15 @@
         <v>5</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E120" s="58">
+        <v>163</v>
+      </c>
+      <c r="E120" s="56">
         <v>45323</v>
       </c>
     </row>
@@ -4790,497 +4738,429 @@
         <v>5</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D121" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" s="56">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="56">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="E123" s="56">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="68">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="56">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="56">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E127" s="56">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E121" s="55">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E122" s="55">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="C128" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="64"/>
+      <c r="E128" s="54">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="64"/>
+      <c r="E129" s="53">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="54">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="54">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="53">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="55">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E124" s="55">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="E125" s="55">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E126" s="55">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E127" s="55">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E128" s="58">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="C129" s="59" t="s">
+      <c r="D133" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" s="54">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="54">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D130" s="64"/>
-      <c r="E130" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D131" s="64"/>
-      <c r="E131" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C132" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D132" s="64"/>
-      <c r="E132" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="C133" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="64"/>
-      <c r="E133" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="C135" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65">
-        <v>45427</v>
+      <c r="D135" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="50">
+        <v>44852</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="C136" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D136" s="64"/>
-      <c r="E136" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="C138" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="61">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C139" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="61">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C140" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="61">
-        <v>45417</v>
-      </c>
+      <c r="A136" s="65"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="53"/>
+    </row>
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+    </row>
+    <row r="139" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="33"/>
+    </row>
+    <row r="140" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="33"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="60"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="61"/>
-    </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-    </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="33"/>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="33"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="33"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="9"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="12"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="33"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E147" s="3"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="11"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="12"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="11"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="12"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="11"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="11"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="17"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:A28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"R:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A149:A153" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A144:A148" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A64 A66:A93" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A85 A47:A56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D47" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
-    <hyperlink ref="D52" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
-    <hyperlink ref="D49" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
-    <hyperlink ref="D55" r:id="rId4" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
-    <hyperlink ref="D57" r:id="rId5" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
-    <hyperlink ref="D58" r:id="rId6" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
-    <hyperlink ref="D59" r:id="rId7" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
-    <hyperlink ref="D82" r:id="rId8" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
-    <hyperlink ref="D79" r:id="rId9" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
-    <hyperlink ref="D75" r:id="rId10" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
-    <hyperlink ref="D78" r:id="rId11" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
-    <hyperlink ref="D73" r:id="rId12" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
-    <hyperlink ref="D74" r:id="rId13" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
-    <hyperlink ref="D76" r:id="rId14" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
-    <hyperlink ref="D77" r:id="rId15" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
-    <hyperlink ref="D81" r:id="rId16" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
-    <hyperlink ref="D69" r:id="rId17" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
-    <hyperlink ref="D99" r:id="rId18" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
-    <hyperlink ref="D62" r:id="rId19" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
-    <hyperlink ref="D64" r:id="rId20" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
-    <hyperlink ref="D65" r:id="rId21" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
-    <hyperlink ref="D85" r:id="rId22" xr:uid="{A8F74727-D3DC-2A40-9759-9BA70515EFBB}"/>
-    <hyperlink ref="D86" r:id="rId23" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
-    <hyperlink ref="D91" r:id="rId24" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
-    <hyperlink ref="D92" r:id="rId25" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
-    <hyperlink ref="D103" r:id="rId26" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
-    <hyperlink ref="D104" r:id="rId27" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
-    <hyperlink ref="D109" r:id="rId28" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
-    <hyperlink ref="D110" r:id="rId29" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
-    <hyperlink ref="D111" r:id="rId30" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
-    <hyperlink ref="D112" r:id="rId31" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
-    <hyperlink ref="D113" r:id="rId32" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
-    <hyperlink ref="D114" r:id="rId33" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
-    <hyperlink ref="D115" r:id="rId34" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
-    <hyperlink ref="D116" r:id="rId35" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
-    <hyperlink ref="D117" r:id="rId36" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
-    <hyperlink ref="D118" r:id="rId37" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
-    <hyperlink ref="D119" r:id="rId38" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
-    <hyperlink ref="D120" r:id="rId39" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
-    <hyperlink ref="D121" r:id="rId40" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
-    <hyperlink ref="D122" r:id="rId41" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
-    <hyperlink ref="D124" r:id="rId42" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
+    <hyperlink ref="D63" r:id="rId1" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
+    <hyperlink ref="D72" r:id="rId2" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
+    <hyperlink ref="D90" r:id="rId3" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
+    <hyperlink ref="D116" r:id="rId4" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D134" r:id="rId5" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
+    <hyperlink ref="D126" r:id="rId6" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
+    <hyperlink ref="D82" r:id="rId7" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
+    <hyperlink ref="D125" r:id="rId8" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
+    <hyperlink ref="D68" r:id="rId9" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
+    <hyperlink ref="D81" r:id="rId10" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
+    <hyperlink ref="D102" r:id="rId11" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
+    <hyperlink ref="D110" r:id="rId12" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
+    <hyperlink ref="D133" r:id="rId13" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
+    <hyperlink ref="D97" r:id="rId14" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
+    <hyperlink ref="D74" r:id="rId15" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
+    <hyperlink ref="D100" r:id="rId16" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
+    <hyperlink ref="D84" r:id="rId17" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
+    <hyperlink ref="D60" r:id="rId18" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
+    <hyperlink ref="D119" r:id="rId19" xr:uid="{A8F74727-D3DC-2A40-9759-9BA70515EFBB}"/>
+    <hyperlink ref="D65" r:id="rId20" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
+    <hyperlink ref="D111" r:id="rId21" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
+    <hyperlink ref="D112" r:id="rId22" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
+    <hyperlink ref="D114" r:id="rId23" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
+    <hyperlink ref="D132" r:id="rId24" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
+    <hyperlink ref="D115" r:id="rId25" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
+    <hyperlink ref="D62" r:id="rId26" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
+    <hyperlink ref="D66" r:id="rId27" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
+    <hyperlink ref="D67" r:id="rId28" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
+    <hyperlink ref="D70" r:id="rId29" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
+    <hyperlink ref="D79" r:id="rId30" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
+    <hyperlink ref="D80" r:id="rId31" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
+    <hyperlink ref="D89" r:id="rId32" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
+    <hyperlink ref="D94" r:id="rId33" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
+    <hyperlink ref="D101" r:id="rId34" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
+    <hyperlink ref="D104" r:id="rId35" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
+    <hyperlink ref="D118" r:id="rId36" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
+    <hyperlink ref="D123" r:id="rId37" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
+    <hyperlink ref="D127" r:id="rId38" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
+    <hyperlink ref="D122" r:id="rId39" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId43"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId40"/>
   <tableParts count="5">
+    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
     <tablePart r:id="rId44"/>
     <tablePart r:id="rId45"/>
-    <tablePart r:id="rId46"/>
-    <tablePart r:id="rId47"/>
-    <tablePart r:id="rId48"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49D2BE-4AEF-A746-B19E-644AA6896CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303068E9-6B3E-FF44-AE5D-F0B20EC2F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="20" windowWidth="18960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22820" yWindow="1000" windowWidth="18960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="245">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Geldner, Nathan</t>
   </si>
   <si>
-    <t>Walker, Shane</t>
-  </si>
-  <si>
     <t>Modi, Vijay</t>
   </si>
   <si>
@@ -723,9 +720,6 @@
     <t>George Washington University</t>
   </si>
   <si>
-    <t>acooperman@email.gwu.edu</t>
-  </si>
-  <si>
     <t>ajantrania@tamu.edu</t>
   </si>
   <si>
@@ -1023,24 +1017,9 @@
     <t>Gori, Avantika</t>
   </si>
   <si>
-    <t>Paolo Bocchini</t>
-  </si>
-  <si>
     <t>Lehigh University</t>
   </si>
   <si>
-    <t>Maryam Rahnemoonfar</t>
-  </si>
-  <si>
-    <t>David Casagrande</t>
-  </si>
-  <si>
-    <t>Brian Davison</t>
-  </si>
-  <si>
-    <t>Yi-Chen Yang</t>
-  </si>
-  <si>
     <t>Kowal, Daniel R.</t>
   </si>
   <si>
@@ -1057,6 +1036,21 @@
   </si>
   <si>
     <t>Veeraraghavan, Ashok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davison, Brian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casagrande, David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahnemoonfar, Maryam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bocchini, Paolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang, Yi-Chen </t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1569,10 +1563,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1597,15 +1587,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2767,11 +2749,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E136" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A46:E136" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E136">
-    <sortCondition descending="1" ref="A47:A136"/>
-    <sortCondition ref="B47:B136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E132" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E132" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E132">
+    <sortCondition descending="1" ref="A47:A132"/>
+    <sortCondition ref="B47:B132"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2790,8 +2772,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A143:E148" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A143:E148" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A139:E144" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A139:E144" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -3035,10 +3017,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3342,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>56</v>
@@ -3374,7 +3356,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>50</v>
@@ -3388,7 +3370,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>48</v>
@@ -3402,7 +3384,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>54</v>
@@ -3416,7 +3398,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>52</v>
@@ -3506,12 +3488,12 @@
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="62"/>
+        <v>240</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="61"/>
       <c r="E47" s="53">
         <v>45427</v>
       </c>
@@ -3521,12 +3503,12 @@
         <v>1</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="62"/>
+        <v>241</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="61"/>
       <c r="E48" s="53">
         <v>45427</v>
       </c>
@@ -3535,13 +3517,13 @@
       <c r="A49" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="61" t="s">
+      <c r="B49" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="62"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="53">
         <v>45427</v>
       </c>
@@ -3550,13 +3532,13 @@
       <c r="A50" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="61" t="s">
+      <c r="B50" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="62"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="53">
         <v>45427</v>
       </c>
@@ -3565,13 +3547,13 @@
       <c r="A51" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" s="61" t="s">
+      <c r="B51" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="62"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="53">
         <v>45427</v>
       </c>
@@ -3581,12 +3563,12 @@
         <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="62"/>
+        <v>242</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="61"/>
       <c r="E52" s="53">
         <v>45427</v>
       </c>
@@ -3596,13 +3578,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="D53" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="54">
         <v>45119</v>
@@ -3613,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>44</v>
@@ -3627,13 +3609,13 @@
       <c r="A55" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="62"/>
+      <c r="B55" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="61"/>
       <c r="E55" s="53">
         <v>45427</v>
       </c>
@@ -3643,22 +3625,22 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="62"/>
+        <v>244</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="61"/>
       <c r="E56" s="53">
         <v>45427</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>43</v>
@@ -3675,26 +3657,26 @@
         <v>5</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="67" t="s">
         <v>92</v>
-      </c>
-      <c r="D58" s="70" t="s">
-        <v>93</v>
       </c>
       <c r="E58" s="50">
         <v>44545</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="58" t="s">
+      <c r="A59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="18"/>
@@ -3707,13 +3689,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E60" s="54">
         <v>45005</v>
@@ -3724,13 +3706,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E61" s="54">
         <v>45351</v>
@@ -3740,14 +3722,14 @@
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>170</v>
+      <c r="B62" s="64" t="s">
+        <v>168</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E62" s="54">
         <v>45323</v>
@@ -3758,13 +3740,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="50">
         <v>44180</v>
@@ -3775,13 +3757,13 @@
         <v>5</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E64" s="54">
         <v>45351</v>
@@ -3792,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E65" s="54">
         <v>45154</v>
@@ -3809,13 +3791,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E66" s="54">
         <v>45323</v>
@@ -3826,50 +3808,50 @@
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E67" s="54">
         <v>45323</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E68" s="54">
-        <v>45119</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>70</v>
+        <v>195</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="E69" s="54">
-        <v>45273</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3877,16 +3859,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" s="54">
-        <v>45323</v>
+        <v>44</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,84 +3876,84 @@
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="53">
-        <v>45454</v>
+        <v>96</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>89</v>
+      <c r="B72" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="E72" s="50">
-        <v>44545</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="51" t="s">
-        <v>103</v>
+      <c r="B73" s="64" t="s">
+        <v>142</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="53">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="54">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="50">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="53">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>60</v>
+      <c r="D75" s="51" t="s">
+        <v>229</v>
       </c>
       <c r="E75" s="54">
-        <v>45231</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,16 +3961,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="54">
-        <v>45005</v>
+        <v>65</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="66">
+        <v>45120</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3996,16 +3978,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="69">
-        <v>45120</v>
+        <v>113</v>
+      </c>
+      <c r="E77" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4013,16 +3995,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="50">
-        <v>45040</v>
+        <v>106</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="54">
+        <v>45323</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4030,13 +4012,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="54">
         <v>45323</v>
@@ -4047,16 +4029,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="E80" s="54">
-        <v>45323</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4064,13 +4046,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E81" s="54">
         <v>45119</v>
@@ -4081,16 +4063,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="54">
-        <v>45119</v>
+        <v>65</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="11">
+        <v>45120</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4098,16 +4080,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="11">
-        <v>45120</v>
+        <v>69</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="54">
+        <v>45005</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4115,16 +4097,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E84" s="54">
-        <v>45005</v>
+        <v>227</v>
+      </c>
+      <c r="E84" s="56">
+        <v>45351</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4132,33 +4114,33 @@
         <v>5</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="56">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="E85" s="54">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>161</v>
+        <v>106</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>115</v>
       </c>
       <c r="E86" s="54">
-        <v>45467</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4166,31 +4148,31 @@
         <v>5</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>116</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D87" s="18"/>
       <c r="E87" s="54">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="E88" s="54">
-        <v>45417</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,33 +4180,33 @@
         <v>5</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E89" s="54">
-        <v>45323</v>
+        <v>98</v>
+      </c>
+      <c r="E89" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="50">
-        <v>44545</v>
+        <v>43</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="54">
+        <v>45231</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4232,33 +4214,33 @@
         <v>5</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="54">
-        <v>45231</v>
+        <v>61</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="11">
+        <v>44909</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="11">
-        <v>44909</v>
+        <v>151</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="54">
+        <v>45272</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4266,16 +4248,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E93" s="54">
-        <v>45272</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4283,16 +4265,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="54">
-        <v>45323</v>
+        <v>44</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4300,16 +4282,14 @@
         <v>5</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="50">
-        <v>45040</v>
+      <c r="D95" s="18"/>
+      <c r="E95" s="54">
+        <v>45417</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4317,14 +4297,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="54">
-        <v>45417</v>
+        <v>140</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="50">
+        <v>45040</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4332,31 +4314,31 @@
         <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="50">
-        <v>45040</v>
+        <v>44</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="53">
+        <v>45426</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="58" t="s">
+      <c r="A98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="53">
-        <v>45426</v>
+      <c r="D98" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="54">
+        <v>45272</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4364,16 +4346,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E99" s="54">
-        <v>45272</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4381,16 +4363,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="E100" s="54">
-        <v>44910</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4398,16 +4380,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="E101" s="54">
-        <v>45323</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,33 +4397,33 @@
         <v>5</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="E102" s="54">
-        <v>45119</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="E103" s="54">
-        <v>45273</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4449,16 +4431,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="54">
-        <v>45323</v>
+        <v>228</v>
+      </c>
+      <c r="E104" s="53">
+        <v>45273</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,16 +4448,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E105" s="54">
-        <v>45231</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4483,16 +4465,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="E106" s="53">
-        <v>45273</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4500,13 +4482,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="49" t="s">
-        <v>118</v>
+        <v>136</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E107" s="54">
         <v>45119</v>
@@ -4517,16 +4499,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="53">
-        <v>45454</v>
+        <v>69</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="56">
+        <v>45271</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,16 +4516,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" s="53">
-        <v>45454</v>
+        <v>205</v>
+      </c>
+      <c r="E109" s="56">
+        <v>45271</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4551,16 +4533,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E110" s="54">
-        <v>45119</v>
+        <v>155</v>
+      </c>
+      <c r="E110" s="53">
+        <v>45454</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4568,16 +4550,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E111" s="56">
-        <v>45271</v>
+      <c r="E111" s="53">
+        <v>45273</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4585,16 +4567,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E112" s="56">
-        <v>45271</v>
+        <v>209</v>
+      </c>
+      <c r="E112" s="54">
+        <v>45432</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,16 +4584,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" s="53">
-        <v>45454</v>
+        <v>99</v>
+      </c>
+      <c r="E113" s="50">
+        <v>44545</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4619,16 +4601,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E114" s="53">
-        <v>45273</v>
+        <v>225</v>
+      </c>
+      <c r="E114" s="54">
+        <v>45351</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4636,16 +4618,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E115" s="54">
-        <v>45432</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4653,16 +4635,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="50">
-        <v>44545</v>
+        <v>202</v>
+      </c>
+      <c r="E116" s="54">
+        <v>45154</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4670,16 +4652,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117" s="54">
-        <v>45351</v>
+        <v>161</v>
+      </c>
+      <c r="E117" s="56">
+        <v>45323</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4687,411 +4669,343 @@
         <v>5</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="56">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119" s="56">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" s="56">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="65">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="56">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="56">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D118" s="18" t="s">
+      <c r="C124" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="E118" s="54">
+      <c r="E124" s="56">
         <v>45323</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C119" s="10" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E119" s="54">
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="10" t="s">
+      <c r="D125" s="63"/>
+      <c r="E125" s="54">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="63"/>
+      <c r="E126" s="53">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="54">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" s="56">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E121" s="56">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D122" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" s="56">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D123" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="E123" s="56">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D124" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="68">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E125" s="56">
+      <c r="C128" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" s="53">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="54">
         <v>45119</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D126" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E126" s="56">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130" s="54">
         <v>45119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E127" s="56">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D128" s="64"/>
-      <c r="E128" s="54">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C129" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D129" s="64"/>
-      <c r="E129" s="53">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="54">
-        <v>45273</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>126</v>
+      <c r="B131" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E131" s="54">
-        <v>45119</v>
+        <v>44</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="50">
+        <v>44852</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="53">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E133" s="54">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="54">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D135" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E135" s="50">
-        <v>44852</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="65"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="53"/>
-    </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="53"/>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="32" t="s">
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="33"/>
-    </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="32" t="s">
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="33"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="33"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="33"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" s="3"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="42" t="s">
-        <v>8</v>
-      </c>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="12"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="11"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="12"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="11"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="12"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="11"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="17"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5102,65 +5016,64 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A144:A148" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A140:A144" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A85 A47:A56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A56 A58:A84" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D63" r:id="rId1" xr:uid="{D7EB1CC7-DC81-A749-9B4A-DF72B60AD1B6}"/>
-    <hyperlink ref="D72" r:id="rId2" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
-    <hyperlink ref="D90" r:id="rId3" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
-    <hyperlink ref="D116" r:id="rId4" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
-    <hyperlink ref="D134" r:id="rId5" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
-    <hyperlink ref="D126" r:id="rId6" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
-    <hyperlink ref="D82" r:id="rId7" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
-    <hyperlink ref="D125" r:id="rId8" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
-    <hyperlink ref="D68" r:id="rId9" xr:uid="{DAED5AB9-F7DF-9849-80BA-FEDBD9C64D91}"/>
-    <hyperlink ref="D81" r:id="rId10" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
-    <hyperlink ref="D102" r:id="rId11" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
-    <hyperlink ref="D110" r:id="rId12" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
-    <hyperlink ref="D133" r:id="rId13" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
-    <hyperlink ref="D97" r:id="rId14" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
-    <hyperlink ref="D74" r:id="rId15" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
-    <hyperlink ref="D100" r:id="rId16" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
-    <hyperlink ref="D84" r:id="rId17" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
-    <hyperlink ref="D60" r:id="rId18" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
-    <hyperlink ref="D119" r:id="rId19" xr:uid="{A8F74727-D3DC-2A40-9759-9BA70515EFBB}"/>
-    <hyperlink ref="D65" r:id="rId20" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
-    <hyperlink ref="D111" r:id="rId21" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
-    <hyperlink ref="D112" r:id="rId22" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
-    <hyperlink ref="D114" r:id="rId23" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
-    <hyperlink ref="D132" r:id="rId24" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
-    <hyperlink ref="D115" r:id="rId25" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
-    <hyperlink ref="D62" r:id="rId26" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
-    <hyperlink ref="D66" r:id="rId27" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
-    <hyperlink ref="D67" r:id="rId28" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
-    <hyperlink ref="D70" r:id="rId29" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
-    <hyperlink ref="D79" r:id="rId30" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
-    <hyperlink ref="D80" r:id="rId31" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
-    <hyperlink ref="D89" r:id="rId32" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
-    <hyperlink ref="D94" r:id="rId33" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
-    <hyperlink ref="D101" r:id="rId34" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
-    <hyperlink ref="D104" r:id="rId35" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
-    <hyperlink ref="D118" r:id="rId36" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
-    <hyperlink ref="D123" r:id="rId37" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
-    <hyperlink ref="D127" r:id="rId38" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
-    <hyperlink ref="D122" r:id="rId39" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
+    <hyperlink ref="D71" r:id="rId2" xr:uid="{1FFBA34C-2CB9-FB46-B53A-0E33815647B3}"/>
+    <hyperlink ref="D89" r:id="rId3" xr:uid="{8B891D29-D054-F348-8289-5A1CC467D4AD}"/>
+    <hyperlink ref="D113" r:id="rId4" xr:uid="{738A1298-9C62-4C4E-90B3-DEFCA39B1A7E}"/>
+    <hyperlink ref="D130" r:id="rId5" xr:uid="{7692E345-409A-6243-BB1E-0D441A215F1A}"/>
+    <hyperlink ref="D123" r:id="rId6" xr:uid="{B43D315B-0C1B-784B-8359-93F7D1F41D0C}"/>
+    <hyperlink ref="D81" r:id="rId7" xr:uid="{071BAE7C-B581-F54E-B502-9CE88E86147C}"/>
+    <hyperlink ref="D122" r:id="rId8" xr:uid="{029B3146-C1DB-074A-8B5E-3A24EA1CDCA6}"/>
+    <hyperlink ref="D80" r:id="rId9" xr:uid="{07AD66F8-9BB1-F34E-9E9E-4B18661E5B82}"/>
+    <hyperlink ref="D101" r:id="rId10" xr:uid="{9B59B4A2-56E1-2942-9B3E-82720607F2DD}"/>
+    <hyperlink ref="D107" r:id="rId11" xr:uid="{9016EBEE-FE15-714B-84B4-99C7A2980DD7}"/>
+    <hyperlink ref="D129" r:id="rId12" xr:uid="{D026D7C0-71CF-1B48-81A8-0FC82341F62F}"/>
+    <hyperlink ref="D96" r:id="rId13" xr:uid="{41ECCAFC-91CB-E947-8F8E-856418275D9F}"/>
+    <hyperlink ref="D73" r:id="rId14" xr:uid="{02601EEB-7975-C646-A91C-9E73B7BEFDF0}"/>
+    <hyperlink ref="D99" r:id="rId15" xr:uid="{EF3E0ABE-847B-B042-B57E-5ED51DC5E88C}"/>
+    <hyperlink ref="D83" r:id="rId16" xr:uid="{39B2719B-5D12-FA43-B6B1-DA7C9FF914BB}"/>
+    <hyperlink ref="D60" r:id="rId17" xr:uid="{60656AAD-AB4D-2943-929A-2F523A67BCED}"/>
+    <hyperlink ref="D116" r:id="rId18" xr:uid="{A8F74727-D3DC-2A40-9759-9BA70515EFBB}"/>
+    <hyperlink ref="D65" r:id="rId19" xr:uid="{844CCCCE-76CD-9242-95FA-62DDB01CDB39}"/>
+    <hyperlink ref="D108" r:id="rId20" xr:uid="{B3EA7078-8FB0-7B4B-A707-65B7E3038B27}"/>
+    <hyperlink ref="D109" r:id="rId21" xr:uid="{826E6BFE-498A-0242-8C24-16FF8E0D9007}"/>
+    <hyperlink ref="D111" r:id="rId22" xr:uid="{EEB0E984-385F-4A45-AC10-66B0B570526B}"/>
+    <hyperlink ref="D128" r:id="rId23" xr:uid="{6686B9F9-C222-584E-8FBD-0AA6A10D0A3A}"/>
+    <hyperlink ref="D112" r:id="rId24" xr:uid="{B6055F22-8AFC-754E-A17B-37A4D1CA9DD2}"/>
+    <hyperlink ref="D62" r:id="rId25" xr:uid="{3AAF863A-077C-A940-927E-6017963A85BA}"/>
+    <hyperlink ref="D66" r:id="rId26" xr:uid="{F375B8A6-FFD5-494C-88E9-E57C10425DE7}"/>
+    <hyperlink ref="D67" r:id="rId27" xr:uid="{B5985928-C8F6-904F-B588-C16E66391232}"/>
+    <hyperlink ref="D69" r:id="rId28" xr:uid="{3EA12CF7-3B8A-024F-9018-CF6AA75AD549}"/>
+    <hyperlink ref="D78" r:id="rId29" xr:uid="{68E532FD-7EB1-7B4F-A33E-B2EB73717BED}"/>
+    <hyperlink ref="D79" r:id="rId30" xr:uid="{641B2FEF-DCB5-B54A-AF88-B433F3D965E4}"/>
+    <hyperlink ref="D88" r:id="rId31" xr:uid="{47633914-D4B9-1B45-ACC3-70323F9DBD72}"/>
+    <hyperlink ref="D93" r:id="rId32" xr:uid="{926F8259-3F95-DE45-BD42-EFB35CE63CE7}"/>
+    <hyperlink ref="D100" r:id="rId33" xr:uid="{A8F82757-5C9D-D540-9571-0A392F3C49DA}"/>
+    <hyperlink ref="D102" r:id="rId34" xr:uid="{B78D9DD4-3E9B-9341-A0A4-75F4EDFC81E7}"/>
+    <hyperlink ref="D115" r:id="rId35" xr:uid="{7D6914EA-8863-D045-985A-5FEBFD516A41}"/>
+    <hyperlink ref="D120" r:id="rId36" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
+    <hyperlink ref="D124" r:id="rId37" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
+    <hyperlink ref="D119" r:id="rId38" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId40"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId39"/>
   <tableParts count="5">
+    <tablePart r:id="rId40"/>
     <tablePart r:id="rId41"/>
     <tablePart r:id="rId42"/>
     <tablePart r:id="rId43"/>
     <tablePart r:id="rId44"/>
-    <tablePart r:id="rId45"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/coa/coa_nsf.xlsx
+++ b/coa/coa_nsf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303068E9-6B3E-FF44-AE5D-F0B20EC2F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFD21D-C705-5B49-820A-F8EA56227CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="1000" windowWidth="18960" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="249">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -828,9 +828,6 @@
     <t>Condon, Madison</t>
   </si>
   <si>
-    <t>Cooper, Courttney</t>
-  </si>
-  <si>
     <t>Coronese, Matteo</t>
   </si>
   <si>
@@ -1051,6 +1048,21 @@
   </si>
   <si>
     <t xml:space="preserve">Yang, Yi-Chen </t>
+  </si>
+  <si>
+    <t>Haider, M.R.</t>
+  </si>
+  <si>
+    <t>University of Texas at Arlington</t>
+  </si>
+  <si>
+    <t>Nayak, Adam</t>
+  </si>
+  <si>
+    <t>Cooper, Courtney</t>
+  </si>
+  <si>
+    <t>Baule, William J.</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1604,6 +1616,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2749,11 +2777,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E132" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A46:E132" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E132">
-    <sortCondition descending="1" ref="A47:A132"/>
-    <sortCondition ref="B47:B132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A46:E134" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A46:E134" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:E134">
+    <sortCondition descending="1" ref="A47:A134"/>
+    <sortCondition ref="B47:B134"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2772,8 +2800,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A139:E144" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A139:E144" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A141:E146" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A141:E146" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -3017,10 +3045,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3488,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="53">
@@ -3503,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="53">
@@ -3533,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>44</v>
@@ -3548,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>44</v>
@@ -3563,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" s="61"/>
       <c r="E52" s="53">
@@ -3595,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>44</v>
@@ -3610,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" s="61"/>
       <c r="E55" s="53">
@@ -3625,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" s="61"/>
       <c r="E56" s="53">
@@ -3648,8 +3676,8 @@
       <c r="D57" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="54">
-        <v>45231</v>
+      <c r="E57" s="50">
+        <v>45636</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3674,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>44</v>
@@ -3689,13 +3717,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E60" s="54">
         <v>45005</v>
@@ -3709,10 +3737,10 @@
         <v>163</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="54">
         <v>45351</v>
@@ -3729,7 +3757,7 @@
         <v>106</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E62" s="54">
         <v>45323</v>
@@ -3760,10 +3788,10 @@
         <v>165</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E64" s="54">
         <v>45351</v>
@@ -3774,13 +3802,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="54">
         <v>45154</v>
@@ -3794,10 +3822,10 @@
         <v>169</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E66" s="54">
         <v>45323</v>
@@ -3808,13 +3836,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E67" s="54">
         <v>45323</v>
@@ -3833,8 +3861,8 @@
       <c r="D68" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="54">
-        <v>45273</v>
+      <c r="E68" s="71">
+        <v>45639</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3842,13 +3870,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E69" s="54">
         <v>45323</v>
@@ -3867,8 +3895,8 @@
       <c r="D70" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="53">
-        <v>45454</v>
+      <c r="E70" s="71">
+        <v>45809</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3902,7 +3930,7 @@
         <v>111</v>
       </c>
       <c r="E72" s="50">
-        <v>45040</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,8 +3946,8 @@
       <c r="D73" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="53">
-        <v>45454</v>
+      <c r="E73" s="71">
+        <v>45809</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3944,13 +3972,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E75" s="54">
         <v>45005</v>
@@ -3995,13 +4023,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E78" s="54">
         <v>45323</v>
@@ -4012,13 +4040,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79" s="54">
         <v>45323</v>
@@ -4080,13 +4108,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="54">
         <v>45005</v>
@@ -4100,10 +4128,10 @@
         <v>166</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E84" s="56">
         <v>45351</v>
@@ -4148,14 +4176,14 @@
         <v>5</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="54">
-        <v>45417</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4163,13 +4191,13 @@
         <v>5</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E88" s="54">
         <v>45323</v>
@@ -4240,7 +4268,7 @@
         <v>153</v>
       </c>
       <c r="E92" s="54">
-        <v>45272</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4248,13 +4276,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E93" s="54">
         <v>45323</v>
@@ -4270,7 +4298,7 @@
       <c r="C94" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E94" s="50">
@@ -4282,14 +4310,14 @@
         <v>5</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="54">
-        <v>45417</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4314,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>44</v>
@@ -4338,7 +4366,7 @@
         <v>152</v>
       </c>
       <c r="E98" s="54">
-        <v>45272</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4363,13 +4391,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E100" s="54">
         <v>45323</v>
@@ -4388,8 +4416,8 @@
       <c r="D101" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E101" s="54">
-        <v>45119</v>
+      <c r="E101" s="72">
+        <v>45639</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4397,13 +4425,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" s="54">
         <v>45323</v>
@@ -4431,16 +4459,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E104" s="53">
-        <v>45273</v>
+        <v>227</v>
+      </c>
+      <c r="E104" s="72">
+        <v>45639</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4456,8 +4484,8 @@
       <c r="D105" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E105" s="54">
-        <v>45119</v>
+      <c r="E105" s="71">
+        <v>45809</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4474,7 +4502,7 @@
         <v>148</v>
       </c>
       <c r="E106" s="53">
-        <v>45454</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4499,16 +4527,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E108" s="56">
-        <v>45271</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4516,16 +4544,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E109" s="56">
-        <v>45271</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4542,7 +4570,7 @@
         <v>155</v>
       </c>
       <c r="E110" s="53">
-        <v>45454</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4550,16 +4578,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111" s="53">
-        <v>45273</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4573,7 +4601,7 @@
         <v>106</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E112" s="54">
         <v>45432</v>
@@ -4604,10 +4632,10 @@
         <v>164</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E114" s="54">
         <v>45351</v>
@@ -4618,13 +4646,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E115" s="54">
         <v>45323</v>
@@ -4635,13 +4663,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E116" s="54">
         <v>45154</v>
@@ -4652,7 +4680,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>158</v>
@@ -4660,8 +4688,8 @@
       <c r="D117" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E117" s="56">
-        <v>45323</v>
+      <c r="E117" s="71">
+        <v>45639</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4677,8 +4705,8 @@
       <c r="D118" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E118" s="56">
-        <v>45467</v>
+      <c r="E118" s="71">
+        <v>45639</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4689,10 +4717,10 @@
         <v>162</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E119" s="56">
         <v>45351</v>
@@ -4703,13 +4731,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D120" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E120" s="56">
         <v>45432</v>
@@ -4771,13 +4799,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D124" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E124" s="56">
         <v>45323</v>
@@ -4788,14 +4816,14 @@
         <v>5</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D125" s="63"/>
       <c r="E125" s="54">
-        <v>45417</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,7 +4831,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>44</v>
@@ -4835,16 +4863,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E128" s="53">
-        <v>45273</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4899,113 +4927,151 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="A132" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" s="69" t="s">
+        <v>245</v>
+      </c>
       <c r="D132" s="18"/>
-      <c r="E132" s="53"/>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="31" t="s">
+      <c r="E132" s="71">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="71">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="56">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="32" t="s">
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+    </row>
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="33"/>
-    </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="33"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
       <c r="E137" s="33"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="5" t="s">
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="33"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="33"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="40" t="s">
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="41" t="s">
+      <c r="B141" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C141" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="41" t="s">
+      <c r="D141" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E141" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="12"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-    </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="12"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="18"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
       <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
-      <c r="B143" s="13"/>
+      <c r="B143" s="10"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="18"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="11"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="17"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5016,7 +5082,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A140:A144" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A142:A146" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A39" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -5065,15 +5131,16 @@
     <hyperlink ref="D120" r:id="rId36" xr:uid="{B719B9AE-3627-0747-9D31-4759ADACC305}"/>
     <hyperlink ref="D124" r:id="rId37" xr:uid="{218BFEE5-FC52-2243-98FB-B6E63E017AF6}"/>
     <hyperlink ref="D119" r:id="rId38" xr:uid="{89A454E4-BCDB-4D4B-9EE7-5D6D2263E7A4}"/>
+    <hyperlink ref="D94" r:id="rId39" xr:uid="{3153A923-F912-A44A-BE3A-88866A4D7D34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId39"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId40"/>
   <tableParts count="5">
-    <tablePart r:id="rId40"/>
     <tablePart r:id="rId41"/>
     <tablePart r:id="rId42"/>
     <tablePart r:id="rId43"/>
     <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
